--- a/SEARCHING_PREPROCESSING/Preprocessing_Statistics.xlsx
+++ b/SEARCHING_PREPROCESSING/Preprocessing_Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phxonline-my.sharepoint.com/personal/pranavphanindrasai_manepalli_zelis_com/Documents/Documents/Learning/py_vs_rust/Presentation - 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phxonline-my.sharepoint.com/personal/pranavphanindrasai_manepalli_zelis_com/Documents/Documents/Tasks/RUST_VS_PYTHON/SEARCHING_PREPROCESSING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{1BCBB24A-E53C-4BC4-8F7F-E03EE9D8D991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC983C94-FCA7-4EB3-9521-ADD22A7C0638}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{1BCBB24A-E53C-4BC4-8F7F-E03EE9D8D991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90FC9528-AAC2-4FE7-8194-45008A40F27A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{86A3A0FB-A33C-4990-B716-D2EA558F43A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{86A3A0FB-A33C-4990-B716-D2EA558F43A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -785,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -795,6 +792,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1240,6 +1240,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Preprocessing Tasks in pipeline</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in order</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1305,6 +1365,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Usage(MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1787,6 +1907,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Preprocessing Tasks in Order in Pipeline</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1846,6 +2021,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory Difference After each Task(MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3044,6 +3274,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Preprocessing Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3109,6 +3394,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3360,6 +3700,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3380,6 +3725,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3400,6 +3750,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3420,6 +3775,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3440,6 +3800,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3460,6 +3825,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3482,6 +3852,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3504,6 +3879,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3526,6 +3906,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3548,6 +3933,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-83D4-4C96-81FA-9E9F40ACC981}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3965,6 +4355,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3985,6 +4380,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4005,6 +4405,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4025,6 +4430,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4045,6 +4455,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4065,6 +4480,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4087,6 +4507,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4109,6 +4534,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4131,6 +4561,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -4153,6 +4588,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-410E-4248-81A1-90C8F7812E01}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -8456,15 +8896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1677987</xdr:colOff>
+      <xdr:colOff>1677986</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9018,17 +9458,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -9063,7 +9503,7 @@
         <v>453.64</v>
       </c>
       <c r="D3" s="1">
-        <f>C3/1000</f>
+        <f t="shared" ref="D3:D16" si="0">C3/1000</f>
         <v>0.45363999999999999</v>
       </c>
       <c r="E3" s="1"/>
@@ -9085,11 +9525,11 @@
         <v>805.79</v>
       </c>
       <c r="D4" s="1">
-        <f>C4/1000</f>
+        <f t="shared" si="0"/>
         <v>0.80579000000000001</v>
       </c>
       <c r="E4" s="1">
-        <f>D4-D3</f>
+        <f t="shared" ref="E4:E13" si="1">D4-D3</f>
         <v>0.35215000000000002</v>
       </c>
       <c r="F4" s="1">
@@ -9114,11 +9554,11 @@
         <v>837.45</v>
       </c>
       <c r="D5" s="1">
-        <f>C5/1000</f>
+        <f t="shared" si="0"/>
         <v>0.83745000000000003</v>
       </c>
       <c r="E5" s="1">
-        <f>D5-D4</f>
+        <f t="shared" si="1"/>
         <v>3.1660000000000021E-2</v>
       </c>
       <c r="F5" s="1">
@@ -9139,11 +9579,11 @@
         <v>855.67</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/1000</f>
+        <f t="shared" si="0"/>
         <v>0.85566999999999993</v>
       </c>
       <c r="E6" s="1">
-        <f>D6-D5</f>
+        <f t="shared" si="1"/>
         <v>1.8219999999999903E-2</v>
       </c>
       <c r="F6" s="1">
@@ -9168,11 +9608,11 @@
         <v>874.09</v>
       </c>
       <c r="D7" s="1">
-        <f>C7/1000</f>
+        <f t="shared" si="0"/>
         <v>0.87409000000000003</v>
       </c>
       <c r="E7" s="1">
-        <f>D7-D6</f>
+        <f t="shared" si="1"/>
         <v>1.8420000000000103E-2</v>
       </c>
       <c r="F7" s="1">
@@ -9197,11 +9637,11 @@
         <v>894.89</v>
       </c>
       <c r="D8" s="1">
-        <f>C8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.89488999999999996</v>
       </c>
       <c r="E8" s="1">
-        <f>D8-D7</f>
+        <f t="shared" si="1"/>
         <v>2.079999999999993E-2</v>
       </c>
       <c r="F8" s="1">
@@ -9226,11 +9666,11 @@
         <v>920.5</v>
       </c>
       <c r="D9" s="1">
-        <f>C9/1000</f>
+        <f t="shared" si="0"/>
         <v>0.92049999999999998</v>
       </c>
       <c r="E9" s="1">
-        <f>D9-D8</f>
+        <f t="shared" si="1"/>
         <v>2.5610000000000022E-2</v>
       </c>
       <c r="F9" s="1">
@@ -9255,11 +9695,11 @@
         <v>945.47</v>
       </c>
       <c r="D10" s="1">
-        <f>C10/1000</f>
+        <f t="shared" si="0"/>
         <v>0.94547000000000003</v>
       </c>
       <c r="E10" s="1">
-        <f>D10-D9</f>
+        <f t="shared" si="1"/>
         <v>2.4970000000000048E-2</v>
       </c>
       <c r="F10" s="1">
@@ -9284,11 +9724,11 @@
         <v>986.16</v>
       </c>
       <c r="D11" s="1">
-        <f>C11/1000</f>
+        <f t="shared" si="0"/>
         <v>0.98615999999999993</v>
       </c>
       <c r="E11" s="1">
-        <f>D11-D10</f>
+        <f t="shared" si="1"/>
         <v>4.0689999999999893E-2</v>
       </c>
       <c r="F11" s="1">
@@ -9313,11 +9753,11 @@
         <v>1034.26</v>
       </c>
       <c r="D12" s="1">
-        <f>C12/1000</f>
+        <f t="shared" si="0"/>
         <v>1.03426</v>
       </c>
       <c r="E12" s="1">
-        <f>D12-D11</f>
+        <f t="shared" si="1"/>
         <v>4.8100000000000032E-2</v>
       </c>
       <c r="F12" s="1">
@@ -9342,11 +9782,11 @@
         <v>1052.73</v>
       </c>
       <c r="D13" s="1">
-        <f>C13/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0527299999999999</v>
       </c>
       <c r="E13" s="1">
-        <f>D13-D12</f>
+        <f t="shared" si="1"/>
         <v>1.8469999999999986E-2</v>
       </c>
       <c r="F13" s="1">
@@ -9369,7 +9809,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <f>C14/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -9393,7 +9833,7 @@
         <v>1107.32</v>
       </c>
       <c r="D15" s="1">
-        <f>C15/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1073199999999999</v>
       </c>
       <c r="E15" s="1">
@@ -9422,7 +9862,7 @@
         <v>1153.24</v>
       </c>
       <c r="D16" s="1">
-        <f>C16/1000</f>
+        <f t="shared" si="0"/>
         <v>1.15324</v>
       </c>
       <c r="E16" s="1"/>
@@ -9473,7 +9913,7 @@
         <v>453.64</v>
       </c>
       <c r="D20" s="1">
-        <f>C20/1000</f>
+        <f t="shared" ref="D20:D33" si="2">C20/1000</f>
         <v>0.45363999999999999</v>
       </c>
       <c r="E20" s="1"/>
@@ -9495,11 +9935,11 @@
         <v>805.79</v>
       </c>
       <c r="D21" s="1">
-        <f>C21/1000</f>
+        <f t="shared" si="2"/>
         <v>0.80579000000000001</v>
       </c>
       <c r="E21" s="1">
-        <f>D21-D20</f>
+        <f t="shared" ref="E21:E30" si="3">D21-D20</f>
         <v>0.35215000000000002</v>
       </c>
       <c r="F21" s="1">
@@ -9524,11 +9964,11 @@
         <v>837.45</v>
       </c>
       <c r="D22" s="1">
-        <f>C22/1000</f>
+        <f t="shared" si="2"/>
         <v>0.83745000000000003</v>
       </c>
       <c r="E22" s="1">
-        <f>D22-D21</f>
+        <f t="shared" si="3"/>
         <v>3.1660000000000021E-2</v>
       </c>
       <c r="F22" s="1">
@@ -9549,11 +9989,11 @@
         <v>855.67</v>
       </c>
       <c r="D23" s="1">
-        <f>C23/1000</f>
+        <f t="shared" si="2"/>
         <v>0.85566999999999993</v>
       </c>
       <c r="E23" s="1">
-        <f>D23-D22</f>
+        <f t="shared" si="3"/>
         <v>1.8219999999999903E-2</v>
       </c>
       <c r="F23" s="1">
@@ -9578,11 +10018,11 @@
         <v>874.09</v>
       </c>
       <c r="D24" s="1">
-        <f>C24/1000</f>
+        <f t="shared" si="2"/>
         <v>0.87409000000000003</v>
       </c>
       <c r="E24" s="1">
-        <f>D24-D23</f>
+        <f t="shared" si="3"/>
         <v>1.8420000000000103E-2</v>
       </c>
       <c r="F24" s="1">
@@ -9607,11 +10047,11 @@
         <v>894.89</v>
       </c>
       <c r="D25" s="1">
-        <f>C25/1000</f>
+        <f t="shared" si="2"/>
         <v>0.89488999999999996</v>
       </c>
       <c r="E25" s="1">
-        <f>D25-D24</f>
+        <f t="shared" si="3"/>
         <v>2.079999999999993E-2</v>
       </c>
       <c r="F25" s="1">
@@ -9636,11 +10076,11 @@
         <v>920.5</v>
       </c>
       <c r="D26" s="1">
-        <f>C26/1000</f>
+        <f t="shared" si="2"/>
         <v>0.92049999999999998</v>
       </c>
       <c r="E26" s="1">
-        <f>D26-D25</f>
+        <f t="shared" si="3"/>
         <v>2.5610000000000022E-2</v>
       </c>
       <c r="F26" s="1">
@@ -9665,11 +10105,11 @@
         <v>945.47</v>
       </c>
       <c r="D27" s="1">
-        <f>C27/1000</f>
+        <f t="shared" si="2"/>
         <v>0.94547000000000003</v>
       </c>
       <c r="E27" s="1">
-        <f>D27-D26</f>
+        <f t="shared" si="3"/>
         <v>2.4970000000000048E-2</v>
       </c>
       <c r="F27" s="1">
@@ -9694,11 +10134,11 @@
         <v>986.16</v>
       </c>
       <c r="D28" s="1">
-        <f>C28/1000</f>
+        <f t="shared" si="2"/>
         <v>0.98615999999999993</v>
       </c>
       <c r="E28" s="1">
-        <f>D28-D27</f>
+        <f t="shared" si="3"/>
         <v>4.0689999999999893E-2</v>
       </c>
       <c r="F28" s="1">
@@ -9723,11 +10163,11 @@
         <v>1034.26</v>
       </c>
       <c r="D29" s="1">
-        <f>C29/1000</f>
+        <f t="shared" si="2"/>
         <v>1.03426</v>
       </c>
       <c r="E29" s="1">
-        <f>D29-D28</f>
+        <f t="shared" si="3"/>
         <v>4.8100000000000032E-2</v>
       </c>
       <c r="F29" s="1">
@@ -9752,11 +10192,11 @@
         <v>1052.73</v>
       </c>
       <c r="D30" s="1">
-        <f>C30/1000</f>
+        <f t="shared" si="2"/>
         <v>1.0527299999999999</v>
       </c>
       <c r="E30" s="1">
-        <f>D30-D29</f>
+        <f t="shared" si="3"/>
         <v>1.8469999999999986E-2</v>
       </c>
       <c r="F30" s="1">
@@ -9779,7 +10219,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
-        <f>C31/1000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E31" s="1"/>
@@ -9803,7 +10243,7 @@
         <v>1107.32</v>
       </c>
       <c r="D32" s="1">
-        <f>C32/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1073199999999999</v>
       </c>
       <c r="E32" s="1">
@@ -9832,7 +10272,7 @@
         <v>1153.24</v>
       </c>
       <c r="D33" s="1">
-        <f>C33/1000</f>
+        <f t="shared" si="2"/>
         <v>1.15324</v>
       </c>
       <c r="E33" s="1"/>
@@ -9874,8 +10314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB4865E-53C7-45E8-B4CB-C8C283CB456C}">
   <dimension ref="B2:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="D36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9890,14 +10330,14 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
@@ -10194,14 +10634,14 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -10629,7 +11069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80C971-3086-42A5-86CF-F461EDA744BB}">
   <dimension ref="C2:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -10986,8 +11426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC01FFD4-B28F-488D-AB7C-E5324DCA80D8}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A43"/>
+    <sheetView topLeftCell="B70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11034,26 +11474,26 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>453.64</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <f>B2/1000</f>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D15" si="0">B2/1000</f>
         <v>0.45363999999999999</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>39.299999999999997</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>F2/D2</f>
         <v>0</v>
       </c>
@@ -11071,7 +11511,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <f>B3/1000</f>
+        <f t="shared" si="0"/>
         <v>0.80579000000000001</v>
       </c>
       <c r="E3" s="1">
@@ -11091,36 +11531,36 @@
         <v>0.38322639893768851</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J15" si="0">F3-D3</f>
+        <f t="shared" ref="J3:J15" si="1">F3-D3</f>
         <v>-0.49698999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>837.45</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <f>B4/1000</f>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
         <v>0.83745000000000003</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>72.599999999999994</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I3:I15" si="1">F4/D4</f>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I15" si="2">F4/D4</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.83745000000000003</v>
       </c>
     </row>
@@ -11133,7 +11573,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>B5/1000</f>
+        <f t="shared" si="0"/>
         <v>0.85566999999999993</v>
       </c>
       <c r="E5" s="1">
@@ -11149,11 +11589,11 @@
         <v>13</v>
       </c>
       <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.7646990077950613E-2</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>1.7646990077950613E-2</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
         <v>-0.84056999999999993</v>
       </c>
     </row>
@@ -11166,7 +11606,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f>B6/1000</f>
+        <f t="shared" si="0"/>
         <v>0.87409000000000003</v>
       </c>
       <c r="E6" s="1">
@@ -11182,11 +11622,11 @@
         <v>15</v>
       </c>
       <c r="I6">
+        <f t="shared" si="2"/>
+        <v>3.0088434829365397E-2</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>3.0088434829365397E-2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
         <v>-0.84779000000000004</v>
       </c>
     </row>
@@ -11199,7 +11639,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f>B7/1000</f>
+        <f t="shared" si="0"/>
         <v>0.89488999999999996</v>
       </c>
       <c r="E7" s="1">
@@ -11215,11 +11655,11 @@
         <v>17</v>
       </c>
       <c r="I7">
+        <f t="shared" si="2"/>
+        <v>7.2634625484696439E-3</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>7.2634625484696439E-3</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
         <v>-0.88839000000000001</v>
       </c>
     </row>
@@ -11232,7 +11672,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <f>B8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.92049999999999998</v>
       </c>
       <c r="E8" s="1">
@@ -11248,11 +11688,11 @@
         <v>18</v>
       </c>
       <c r="I8">
+        <f t="shared" si="2"/>
+        <v>3.3677349266702876E-3</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>3.3677349266702876E-3</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
         <v>-0.91739999999999999</v>
       </c>
     </row>
@@ -11265,7 +11705,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <f>B9/1000</f>
+        <f t="shared" si="0"/>
         <v>0.94547000000000003</v>
       </c>
       <c r="E9" s="1">
@@ -11281,11 +11721,11 @@
         <v>20</v>
       </c>
       <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.5865125281605973E-3</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>1.5865125281605973E-3</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
         <v>-0.94397000000000009</v>
       </c>
     </row>
@@ -11298,7 +11738,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <f>B10/1000</f>
+        <f t="shared" si="0"/>
         <v>0.98615999999999993</v>
       </c>
       <c r="E10" s="1">
@@ -11314,11 +11754,11 @@
         <v>22</v>
       </c>
       <c r="I10">
+        <f t="shared" si="2"/>
+        <v>9.024904680782023E-3</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>9.024904680782023E-3</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
         <v>-0.97725999999999991</v>
       </c>
     </row>
@@ -11331,7 +11771,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <f>B11/1000</f>
+        <f t="shared" si="0"/>
         <v>1.03426</v>
       </c>
       <c r="E11" s="1">
@@ -11347,11 +11787,11 @@
         <v>24</v>
       </c>
       <c r="I11">
+        <f t="shared" si="2"/>
+        <v>2.4171871676367647E-2</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>2.4171871676367647E-2</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
         <v>-1.00926</v>
       </c>
     </row>
@@ -11364,7 +11804,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <f>B12/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0527299999999999</v>
       </c>
       <c r="E12" s="1">
@@ -11380,37 +11820,37 @@
         <v>26</v>
       </c>
       <c r="I12">
+        <f t="shared" si="2"/>
+        <v>2.3747779582609027E-2</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>2.3747779582609027E-2</v>
-      </c>
-      <c r="J12">
+        <v>-1.02773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>-1.02773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
-        <f>B13/1000</f>
         <v>0</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>1.37E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>2.8</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.37E-2</v>
       </c>
     </row>
@@ -11423,7 +11863,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <f>B14/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1073199999999999</v>
       </c>
       <c r="E14" s="1">
@@ -11439,11 +11879,11 @@
         <v>30</v>
       </c>
       <c r="I14">
+        <f t="shared" si="2"/>
+        <v>7.7664992955965764E-3</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>7.7664992955965764E-3</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
         <v>-1.0987199999999999</v>
       </c>
     </row>
@@ -11456,7 +11896,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <f>B15/1000</f>
+        <f t="shared" si="0"/>
         <v>1.15324</v>
       </c>
       <c r="E15" s="1">
@@ -11472,11 +11912,11 @@
         <v>32</v>
       </c>
       <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1.3873955117755193E-3</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>1.3873955117755193E-3</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
         <v>-1.15164</v>
       </c>
     </row>
@@ -11517,7 +11957,7 @@
         <v>805.79</v>
       </c>
       <c r="C19" s="1">
-        <f>B19/1000</f>
+        <f t="shared" ref="C19:C29" si="3">B19/1000</f>
         <v>0.80579000000000001</v>
       </c>
       <c r="E19" s="1">
@@ -11533,7 +11973,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <f>F19-C19</f>
+        <f t="shared" ref="J19:J29" si="4">F19-C19</f>
         <v>-0.49698999999999999</v>
       </c>
     </row>
@@ -11545,7 +11985,7 @@
         <v>855.67</v>
       </c>
       <c r="C20" s="1">
-        <f>B20/1000</f>
+        <f t="shared" si="3"/>
         <v>0.85566999999999993</v>
       </c>
       <c r="D20">
@@ -11569,7 +12009,7 @@
         <v>0.30272654370489221</v>
       </c>
       <c r="J20">
-        <f>F20-C20</f>
+        <f t="shared" si="4"/>
         <v>-0.84056999999999993</v>
       </c>
     </row>
@@ -11581,11 +12021,11 @@
         <v>874.09</v>
       </c>
       <c r="C21" s="1">
-        <f>B21/1000</f>
+        <f t="shared" si="3"/>
         <v>0.87409000000000003</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D29" si="2">C21-C20</f>
+        <f t="shared" ref="D21:D29" si="5">C21-C20</f>
         <v>1.8420000000000103E-2</v>
       </c>
       <c r="E21" s="1">
@@ -11601,11 +12041,11 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I29" si="3">F21/D21</f>
+        <f t="shared" ref="I21:I29" si="6">F21/D21</f>
         <v>1.4277958740499377</v>
       </c>
       <c r="J21">
-        <f>F21-C21</f>
+        <f t="shared" si="4"/>
         <v>-0.84779000000000004</v>
       </c>
     </row>
@@ -11617,11 +12057,11 @@
         <v>894.89</v>
       </c>
       <c r="C22" s="1">
-        <f>B22/1000</f>
+        <f t="shared" si="3"/>
         <v>0.89488999999999996</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.079999999999993E-2</v>
       </c>
       <c r="E22" s="1">
@@ -11637,11 +12077,11 @@
         <v>17</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.31250000000000105</v>
       </c>
       <c r="J22">
-        <f>F22-C22</f>
+        <f t="shared" si="4"/>
         <v>-0.88839000000000001</v>
       </c>
     </row>
@@ -11653,11 +12093,11 @@
         <v>920.5</v>
       </c>
       <c r="C23" s="1">
-        <f>B23/1000</f>
+        <f t="shared" si="3"/>
         <v>0.92049999999999998</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.5610000000000022E-2</v>
       </c>
       <c r="E23" s="1">
@@ -11673,11 +12113,11 @@
         <v>18</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12104646622413109</v>
       </c>
       <c r="J23">
-        <f>F23-C23</f>
+        <f t="shared" si="4"/>
         <v>-0.91739999999999999</v>
       </c>
     </row>
@@ -11689,11 +12129,11 @@
         <v>945.47</v>
       </c>
       <c r="C24" s="1">
-        <f>B24/1000</f>
+        <f t="shared" si="3"/>
         <v>0.94547000000000003</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.4970000000000048E-2</v>
       </c>
       <c r="E24" s="1">
@@ -11709,11 +12149,11 @@
         <v>20</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.0072086503804453E-2</v>
       </c>
       <c r="J24">
-        <f>F24-C24</f>
+        <f t="shared" si="4"/>
         <v>-0.94397000000000009</v>
       </c>
     </row>
@@ -11725,11 +12165,11 @@
         <v>986.16</v>
       </c>
       <c r="C25" s="1">
-        <f>B25/1000</f>
+        <f t="shared" si="3"/>
         <v>0.98615999999999993</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.0689999999999893E-2</v>
       </c>
       <c r="E25" s="1">
@@ -11745,11 +12185,11 @@
         <v>22</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.21872695994101801</v>
       </c>
       <c r="J25">
-        <f>F25-C25</f>
+        <f t="shared" si="4"/>
         <v>-0.97725999999999991</v>
       </c>
     </row>
@@ -11761,11 +12201,11 @@
         <v>1034.26</v>
       </c>
       <c r="C26" s="1">
-        <f>B26/1000</f>
+        <f t="shared" si="3"/>
         <v>1.03426</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.8100000000000032E-2</v>
       </c>
       <c r="E26" s="1">
@@ -11781,11 +12221,11 @@
         <v>24</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.51975051975051945</v>
       </c>
       <c r="J26">
-        <f>F26-C26</f>
+        <f t="shared" si="4"/>
         <v>-1.00926</v>
       </c>
     </row>
@@ -11797,11 +12237,11 @@
         <v>1052.73</v>
       </c>
       <c r="C27" s="1">
-        <f>B27/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0527299999999999</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8469999999999986E-2</v>
       </c>
       <c r="E27" s="1">
@@ -11817,11 +12257,11 @@
         <v>26</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3535462912831631</v>
       </c>
       <c r="J27">
-        <f>F27-C27</f>
+        <f t="shared" si="4"/>
         <v>-1.02773</v>
       </c>
     </row>
@@ -11833,11 +12273,11 @@
         <v>1107.32</v>
       </c>
       <c r="C28" s="1">
-        <f>B28/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1073199999999999</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.4589999999999916E-2</v>
       </c>
       <c r="E28" s="1">
@@ -11853,11 +12293,11 @@
         <v>30</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15753801062465678</v>
       </c>
       <c r="J28">
-        <f>F28-C28</f>
+        <f t="shared" si="4"/>
         <v>-1.0987199999999999</v>
       </c>
     </row>
@@ -11869,11 +12309,11 @@
         <v>1153.24</v>
       </c>
       <c r="C29" s="1">
-        <f>B29/1000</f>
+        <f t="shared" si="3"/>
         <v>1.15324</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5920000000000183E-2</v>
       </c>
       <c r="E29" s="1">
@@ -11889,11 +12329,11 @@
         <v>32</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4843205574912751E-2</v>
       </c>
       <c r="J29">
-        <f>F29-C29</f>
+        <f t="shared" si="4"/>
         <v>-1.15164</v>
       </c>
     </row>
@@ -11948,7 +12388,7 @@
         <v>2.63E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E43" si="4">D35/B35</f>
+        <f t="shared" ref="E35:E43" si="7">D35/B35</f>
         <v>1.4277958740499377</v>
       </c>
     </row>
@@ -11963,7 +12403,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.31250000000000105</v>
       </c>
     </row>
@@ -11978,7 +12418,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12104646622413109</v>
       </c>
     </row>
@@ -11993,7 +12433,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.0072086503804453E-2</v>
       </c>
     </row>
@@ -12008,7 +12448,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.21872695994101801</v>
       </c>
     </row>
@@ -12023,7 +12463,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.51975051975051945</v>
       </c>
     </row>
@@ -12038,7 +12478,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3535462912831631</v>
       </c>
     </row>
@@ -12053,7 +12493,7 @@
         <v>8.6E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.15753801062465678</v>
       </c>
     </row>
@@ -12068,7 +12508,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.4843205574912751E-2</v>
       </c>
     </row>
